--- a/resources/pdf/領収書_タテ型.xlsx
+++ b/resources/pdf/領収書_タテ型.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0555BE-3FDD-4DF8-86C5-9BE663C9FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF37E3D-2DE3-47FF-A0B5-BE423EE611F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20440" yWindow="520" windowWidth="16310" windowHeight="20150" xr2:uid="{9983C110-93CF-504C-9689-994AB68E4182}"/>
+    <workbookView xWindow="-34310" yWindow="1990" windowWidth="24220" windowHeight="17910" xr2:uid="{9983C110-93CF-504C-9689-994AB68E4182}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -121,59 +121,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入金日</t>
+    <t>　　　　　　　　　　　　　　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名</t>
     <rPh sb="0" eb="3">
-      <t xml:space="preserve">ニュウキンビ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>納入日</t>
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご予約日</t>
+    <rPh sb="1" eb="3">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日</t>
     <rPh sb="0" eb="3">
-      <t>ノウニュウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>七二会森林クラブ</t>
-    <rPh sb="0" eb="3">
-      <t>ナニアイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンリン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　　　　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〒381-3161</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長野市 七二会丁１９９３</t>
-    <rPh sb="0" eb="3">
-      <t>ナガノシ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ナニアイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEL/FAX : 026-217-3878</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご注文日</t>
-    <rPh sb="1" eb="4">
-      <t>チュウモンビ</t>
-    </rPh>
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〒XXX-XXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所１</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEL/FAX : 026-9999-9999</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -475,6 +462,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -487,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,51 +584,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -592,6 +601,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,60 +698,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>88901</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>196434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1497D5D-1641-1EBB-7E5C-6449C2D9B02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B68285-4DC6-C0A9-2E15-B5E5EBBEEC71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6067425" y="2365375"/>
-          <a:ext cx="762000" cy="768350"/>
+          <a:off x="5880101" y="2276476"/>
+          <a:ext cx="1028699" cy="1037808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -987,10 +1048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1004,16 +1065,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
@@ -1026,7 +1087,7 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1041,12 +1102,12 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="13"/>
       <c r="F6" t="s">
@@ -1055,7 +1116,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="13"/>
       <c r="F7" t="s">
@@ -1063,34 +1124,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1108,9 +1166,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
@@ -1118,9 +1176,9 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -1128,9 +1186,9 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
@@ -1138,9 +1196,9 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
@@ -1148,9 +1206,9 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
@@ -1158,9 +1216,9 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -1168,9 +1226,9 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1178,9 +1236,9 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -1188,9 +1246,9 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
@@ -1198,9 +1256,9 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -1208,9 +1266,9 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1218,9 +1276,9 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -1228,9 +1286,9 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -1238,9 +1296,9 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="7"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
@@ -1248,9 +1306,9 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
@@ -1258,9 +1316,9 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
@@ -1271,10 +1329,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -1288,19 +1346,89 @@
       <c r="C33" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A29:C29"/>
@@ -1313,16 +1441,6 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -1331,7 +1449,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>